--- a/biology/Médecine/Constat_de_décès/Constat_de_décès.xlsx
+++ b/biology/Médecine/Constat_de_décès/Constat_de_décès.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Constat_de_d%C3%A9c%C3%A8s</t>
+          <t>Constat_de_décès</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le constat de décès est l'acte par lequel un médecin constate le décès d'une personne. Il doit alors rédiger un certificat de décès.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Constat_de_d%C3%A9c%C3%A8s</t>
+          <t>Constat_de_décès</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,9 +523,11 @@
           <t>France</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'article L2223-42[1] du code général des collectivités territoriales dispose que « L'autorisation de fermeture du cercueil ne peut être délivrée qu'au vu d'un certificat, établi par un médecin, attestant le décès. »
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'article L2223-42 du code général des collectivités territoriales dispose que « L'autorisation de fermeture du cercueil ne peut être délivrée qu'au vu d'un certificat, établi par un médecin, attestant le décès. »
 Trois situations se présentent en fonction du lieu du décès :
 si le décès survient à l'hôpital ou dans une clinique privée (75 % des cas), le médecin de l'établissement se charge du constat ;
 si le décès survient à domicile ou dans un établissement non médicalisé, c'est le médecin qui arrive sur les lieux et constate le décès (médecin traitant ou médecin de garde) qui délivre le certificat de décès (imprimé bleu en trois volets) ;
@@ -521,13 +535,87 @@
 Il faut savoir que le certificat de décès doit être signé rapidement; sans cette pièce, le transfert du défunt par les pompes funèbres est interdit.
 Le constat de décès doit être réalisé sur les lieux du décès par tout médecin inscrit à l’Ordre des médecins. Le médecin doit être appelé dès que le décès est supposé par la famille, les témoins ou les secouristes.
 Le certificat de décès est nécessaire pour déclarer le décès, pour le transport de corps vers une chambre mortuaire ou funéraire, pour effectuer des soins de conservation, et pour la crémation. Il permet également les démarches successorales et le versement des capitaux (assurances-vie).
-Le certificat de décès
-Le certificat est un imprimé bleu avec deux parties, supérieure nominative, en triple exemplaire et inférieure, proposé par l'arrêté du 24 décembre 1996, et disponible à la Délégation territoriale des agences régionales de santé (ARS)[2].
-Il existe deux modèles de certificat de décès, certificat de décès néonatal jusqu'au vingt-septième jour de vie, et l'autre concerne les décès à partir du vingt-huitième jour de vie[3].
-Un décret est venu modifier le modèle de certificat de décès, par décret du 21 avril 2017, no 2017-602[4].
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Constat_de_décès</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Constat_de_d%C3%A9c%C3%A8s</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>France</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Le certificat de décès</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le certificat est un imprimé bleu avec deux parties, supérieure nominative, en triple exemplaire et inférieure, proposé par l'arrêté du 24 décembre 1996, et disponible à la Délégation territoriale des agences régionales de santé (ARS).
+Il existe deux modèles de certificat de décès, certificat de décès néonatal jusqu'au vingt-septième jour de vie, et l'autre concerne les décès à partir du vingt-huitième jour de vie.
+Un décret est venu modifier le modèle de certificat de décès, par décret du 21 avril 2017, no 2017-602.
 Le certificat de décès peut être électronique, depuis avril 2017. 
-Première partie
-La première partie, supérieure, nominative,  comprend[2] :
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Constat_de_décès</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Constat_de_d%C3%A9c%C3%A8s</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>France</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Le certificat de décès</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Première partie</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>La première partie, supérieure, nominative,  comprend :
 Commune de décès
 État civil du défunt : nom et prénom, date de naissance, domicile
 Date et heure de la mort
@@ -545,9 +633,47 @@
 Cette partie est en triple exemplaire et est destinée à :
 la mairie de la chambre funéraire ;
 la chambre funéraire ;
-la mairie du lieu de décès.
-Deuxième partie
-La deuxième partie a un caractère médical et confidentiel. Elle comprend[2] :
+la mairie du lieu de décès.</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Constat_de_décès</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Constat_de_d%C3%A9c%C3%A8s</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>France</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Le certificat de décès</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Deuxième partie</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La deuxième partie a un caractère médical et confidentiel. Elle comprend :
 Commune du décès, du domicile
 Date de décès
 Date de naissance
